--- a/soberano/test_cases/process_run_end_test_cases.xlsx
+++ b/soberano/test_cases/process_run_end_test_cases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="process run end test" sheetId="1" state="visible" r:id="rId2"/>
@@ -304,13 +304,13 @@
   </sheetPr>
   <dimension ref="A1:AMJ38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
+      <selection pane="bottomLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.78"/>
@@ -319,7 +319,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="7.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="23.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="23.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="998" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -655,7 +655,7 @@
         <v>3</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>22</v>
@@ -755,25 +755,25 @@
   </sheetPr>
   <dimension ref="A1:BS24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P7" activeCellId="0" sqref="P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="18.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="18.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="20.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="20.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="18.08"/>
   </cols>
   <sheetData>

--- a/soberano/test_cases/process_run_end_test_cases.xlsx
+++ b/soberano/test_cases/process_run_end_test_cases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="process run end test" sheetId="1" state="visible" r:id="rId2"/>
@@ -304,13 +304,13 @@
   </sheetPr>
   <dimension ref="A1:AMJ38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
+      <selection pane="bottomLeft" activeCell="A11" activeCellId="1" sqref="K12:K15 A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.78"/>
@@ -319,7 +319,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="7.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="23.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="23.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="998" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -755,18 +755,18 @@
   </sheetPr>
   <dimension ref="A1:BS24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P7" activeCellId="0" sqref="P7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I10" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K12" activeCellId="0" sqref="K12:K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.08"/>
@@ -1028,7 +1028,7 @@
         <v>1000000</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>249.99975</v>
+        <v>0.5</v>
       </c>
       <c r="L11" s="6" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>1000000</v>
       </c>
       <c r="K12" s="6" t="n">
-        <v>249.99975</v>
+        <v>0.5</v>
       </c>
       <c r="L12" s="6" t="n">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>1000000</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>249.99975</v>
+        <v>0.5</v>
       </c>
       <c r="L13" s="6" t="n">
         <v>0</v>
@@ -1175,7 +1175,7 @@
         <v>1000000</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>249.99975</v>
+        <v>0.5</v>
       </c>
       <c r="L14" s="6" t="n">
         <v>0</v>
@@ -1228,7 +1228,7 @@
         <v>1000000</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>249.99975</v>
+        <v>0.5</v>
       </c>
       <c r="L15" s="6" t="n">
         <v>0</v>
@@ -1277,7 +1277,7 @@
       </c>
       <c r="K16" s="6" t="n">
         <f aca="false">(B6*0.5*4000+J15*K15)/(4000+J15)</f>
-        <v>1157624.76705712</v>
+        <v>1157376.26133003</v>
       </c>
       <c r="L16" s="6" t="n">
         <v>0</v>
